--- a/user_stories/EC_user_stories.xlsx
+++ b/user_stories/EC_user_stories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t xml:space="preserve"> User Story ID </t>
   </si>
@@ -43,10 +43,7 @@
     <t xml:space="preserve"> Acceptance Criteria 3                              </t>
   </si>
   <si>
-    <t xml:space="preserve">Viewing and Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">---------------------------------------------------</t>
+    <t xml:space="preserve">Viewing and Navigation </t>
   </si>
   <si>
     <t xml:space="preserve"> Shopper     </t>
@@ -442,6 +439,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -462,6 +460,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -469,12 +468,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -646,23 +647,23 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="90.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="55.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="55.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="56.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,135 +694,133 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,316 +828,320 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,155 +1149,157 @@
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
